--- a/informe/tables/DimensionReduction.xlsx
+++ b/informe/tables/DimensionReduction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,13 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -61,12 +66,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -154,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -172,6 +192,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -517,10 +540,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D13" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -591,7 +614,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -630,7 +653,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
@@ -669,7 +692,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -708,7 +731,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -747,7 +770,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
@@ -786,7 +809,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -825,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -864,7 +887,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
@@ -903,7 +926,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
@@ -942,7 +965,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -981,7 +1004,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -1157,6 +1180,121 @@
       </c>
       <c r="I16" t="n">
         <v>11.19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>10/05/2022 14:44:20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>128x128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>encoder</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>10/05/2022 14:44:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>128x128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>encoder</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RForest</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2022 15:01:10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>128x128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>250</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.66</v>
       </c>
     </row>
   </sheetData>
